--- a/static/report_kid_20230714.xlsx
+++ b/static/report_kid_20230714.xlsx
@@ -463,13 +463,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="9.16" customWidth="1" style="2" min="1" max="1"/>
     <col width="28.76" customWidth="1" style="2" min="2" max="2"/>
@@ -524,27 +524,1839 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Акционерное общество "Управляющая компания Мономах"</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Мономах-Перспектива»</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>http://www.monomah.ru/index.php?id=pravdovupr</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>http://www.monomah.ru/uploads/84317041.pdf</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 15:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "ГЕРФИН"</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «ГЕРФИН – фонд облигаций»</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>https://gerfin.ru/gerfin-uk/</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:46 Ключевой информационный документ о фонде на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>https://gerfin.ru/https://gerfin.ru/GERFIN-UK/opif/KluchIDOC23.pdf</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "ВЕЛЕС ТРАСТ"</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый Паевой Инвестиционный Фонд Недвижимости "Межотраслевая недвижимость"</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>https://veles-trust.ru/ru/Funds/Funds/MejOtraslevaya#management-info</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ по состоянию на 30.06.2023 г.</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>https://veles-trust.ru/Content/UploadedFiles/mejotraslevaya/КИД/КИД_МН 30.06.2023.pdf</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 16:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "ВЕЛЕС ТРАСТ"</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Рентный Закрытый Паевой Инвестиционный Фонд "ТРЦ Перловский"</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>https://veles-trust.ru/ru/Rental/Funds/perlovskiy#no-qualified-investors</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ по состоянию на 30.06.2023 г.</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>https://veles-trust.ru/Content/UploadedFiles/perlovskiy/КИД/КИД_ТП 30.06.2023.pdf</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "ВЕЛЕС ТРАСТ"</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Рентный закрытый паевой инвестиционный фонд "Можайский берег"</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>https://veles-trust.ru/ru/Rental/Funds/mozhayskiy#ruc</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "ВЕЛЕС ТРАСТ"</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый Паевой Инвестиционный Фонд Недвижимости «Торговая недвижимость»</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>https://veles-trust.ru/ru/Funds/Funds/torgovaya-nedvijimost#qualified-investors</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "ВЕЛЕС ТРАСТ"</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый Паевой Инвестиционный Фонд Недвижимости "АТРИУМ"</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>https://veles-trust.ru/ru/Funds/Funds/atrium#no-qualified-investors</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ по состоянию на 30.06.2023 г.</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>https://veles-trust.ru/Content/UploadedFiles/atrium/КИД/КИД_АТ 30.06.2023.pdf</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд недвижимости «Прагматик» под управлением Общества с ограниченной ответственностью «Управляющая компания «Прагма Капитал»</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/pragmatik</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ недвижимости «Прагматик» под управлением ООО "УК "Прагма Капитал" по состоянию на 31.05.2023, исправленный</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6089.pdf</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12.07.2023 23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд недвижимости «Прагматик» под управлением Общества с ограниченной ответственностью «Управляющая компания «Прагма Капитал»</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/pragmatik</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ недвижимости «Прагматик» под управлением ООО "УК "Прагма Капитал" по состоянию на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6131.pdf</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд недвижимости «Рождественский» под управлением Общества с ограниченной ответственностью «Управляющая компания «Прагма Капитал»</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/rozhdestvensky</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ недвижимости «Рождественский» под управлением ООО "УК "Прагма Капитал" по состоянию на 31.05.2023, исправленный</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6091.pdf</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12.07.2023 23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд недвижимости «Рождественский» под управлением Общества с ограниченной ответственностью «Управляющая компания «Прагма Капитал»</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/rozhdestvensky</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ недвижимости «Рождественский» под управлением ООО "УК "Прагма Капитал" по состоянию на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6132.pdf</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд рентный "Красногорье" под управлением Общества с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/krasnogorye</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ рентный «Красногорье» под управлением ООО «УК «Прагма Капитал» по состоянию на 31.05.2023, исправленный</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6092.pdf</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12.07.2023 23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд рентный "Красногорье" под управлением Общества с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/krasnogorye</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ рентный «Красногорье» под управлением ООО «УК «Прагма Капитал» по состоянию на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6134.pdf</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд недвижимости "КОВЧЕГ"</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/kovcheg</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ недвижимости «КОВЧЕГ» по состоянию на 31.05.2023, исправленный</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6094.pdf</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12.07.2023 23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд недвижимости "КОВЧЕГ"</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/kovcheg</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ недвижимости «КОВЧЕГ» по состоянию на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6135.pdf</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд недвижимости "ФОРУМ"</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/forum</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ недвижимости «ФОРУМ» по состоянию на 31.05.2023, исправленный</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6090.pdf</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12.07.2023 23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд недвижимости "ФОРУМ"</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/forum</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ недвижимости «ФОРУМ» по состоянию на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6130.pdf</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд рентный «Перспектива» под управлением Общества с ограниченной ответственностью «Управляющая компания «Прагма Капитал»</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/perspektiva</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ рентный «Перспектива» под управлением ООО «УК «Прагма Капитал» по состоянию на 31.05.2023, исправленный</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6095.pdf</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>12.07.2023 23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд рентный «Перспектива» под управлением Общества с ограниченной ответственностью «Управляющая компания «Прагма Капитал»</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/perspektiva</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ рентный «Перспектива» под управлением ООО «УК «Прагма Капитал» по состоянию на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6136.pdf</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд рентный «Артфонд» под управлением Общества с ограниченной ответственностью «Управляющая компания «Прагма Капитал»</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/artfond</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ рентный «АРТФОНД» под управлением ООО «УК «Прагма Капитал» по состоянию на 31.05.2023, исправленный</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6093.pdf</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12.07.2023 23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "Прагма Капитал"</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд рентный «Артфонд» под управлением Общества с ограниченной ответственностью «Управляющая компания «Прагма Капитал»</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/fund/artfond</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Ключевой информационный документ ЗПИФ рентный «АРТФОНД» под управлением ООО «УК «Прагма Капитал» по состоянию на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>https://www.pragmacapital.ru/data/doc/6133.pdf</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Акционерное общество Управляющая компания "Прогрессивные инвестиционные идеи"</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд акций "Альтернативные инвестиции"</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>http://www.progressinvest.ru/rus/353/document600.phtml</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Управляющая компания "ОТКРЫТИЕ"</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Открытие – Облигации»</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>https://www.open-am.ru/ru/disclosure/funds/opif/bonds/</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>КИД за Июнь 2023</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/common/img/uploaded/PDF-files1/am/disclosure_kid_new/kid_1688485619_13420.pdf</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "ОТКРЫТИЕ"</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Комбинированный закрытый паевой
+инвестиционный фонд 
+«Сберегательный»</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "ОТКРЫТИЕ"</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Открытие – Еврооблигации РФ»</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/ru/disclosure/funds/opif/rfeurobonds/</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>КИД за Июнь 2023</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/common/img/uploaded/PDF-files1/am/disclosure_kid_new/kid_1688485628_113427885.pdf</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "ОТКРЫТИЕ"</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Открытие – Сбалансированный рантье»</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/ru/disclosure/funds/opif/balanced-rentier/</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>КИД за Июнь 2023</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/common/img/uploaded/PDF-files1/am/disclosure_kid_new/kid_1688485625_108545036.pdf</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "ОТКРЫТИЕ"</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Открытие - Сбалансированный»</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/ru/disclosure/funds/opif/balance/</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>КИД за Июнь 2023</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/common/img/uploaded/PDF-files1/am/disclosure_kid_new/kid_1688485623_95981885.pdf</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "ОТКРЫТИЕ"</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Биржевой паевой инвестиционный фонд рыночных финансовых инструментов «Открытие – Акции РФ»</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/ru/disclosure/funds/bpifs/bpif-rf/</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>КИД за Июнь 2023</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/common/img/uploaded/PDF-files1/am/disclosure_kid_new/kid_1688485613_68.pdf</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "ОТКРЫТИЕ"</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Биржевой паевой инвестиционный фонд рыночных финансовых инструментов «Открытие – Облигации РФ»</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/ru/disclosure/funds/bpifs/bpif-bonds-rf/</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>КИД за Июнь 2023</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/common/img/uploaded/PDF-files1/am/disclosure_kid_new/kid_1688485607_67.pdf</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "ОТКРЫТИЕ"</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Открытие – Золотой резерв»</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/ru/disclosure/funds/opif/balanced-rentier/</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>КИД за Июнь 2023</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/common/img/uploaded/PDF-files1/am/disclosure_kid_new/kid_1688485625_108545036.pdf</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "ОТКРЫТИЕ"</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый комбинированный паевой инвестиционный фонд «Ньюлайн – Инфраструктурный»</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/ru/disclosure/funds/opif/gold-reserve/</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "ОТКРЫТИЕ"</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Открытие - Акции»</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/ru/disclosure/funds/opif/shares/</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>КИД за Июнь 2023</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>https://www.open-am.ru/common/img/uploaded/PDF-files1/am/disclosure_kid_new/kid_1688485616_13416.pdf</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью Управляющая компания "Арикапитал"</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов "Арикапитал - Чистые деньги"</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/fund-cm.html</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ключевой   информационный документ ОПИФ рыночных финансовых инструментов «Арикапитал - Чистые деньги» на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/kid/fund-cm.html</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью Управляющая компания "Арикапитал"</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов "Арикапитал - Чистые деньги"</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/fund-cm.html</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ключевой   информационный документ ОПИФ рыночных финансовых инструментов «Арикапитал - Чистые деньги» на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/kid/fund-cm/ea20d229-f73a-4c54-ad64-e88080acf5cb.html</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью Управляющая компания "Арикапитал"</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Харизматичные идеи»</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/fund-ha.html</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ключевой   информационный документ ОПИФ рыночных финансовых инструментов «Харизматичные идеи» на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/kid/fund-ha.html</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью Управляющая компания "Арикапитал"</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Харизматичные идеи»</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/fund-ha.html</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ключевой   информационный документ ОПИФ рыночных финансовых инструментов «Харизматичные идеи» на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/kid/fund-ha/976c260e-65c7-4ad7-8df0-53ab3ab1f04e.html</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью Управляющая компания "Арикапитал"</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Арикапитал – Глобальные инвестиции»</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/fund-gi.html</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ключевой   информационный документ ОПИФ рыночных финансовых инструментов «Арикапитал - Глобальные инвестиции» на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/kid/fund-gi.html</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью Управляющая компания "Арикапитал"</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Арикапитал – Глобальные инвестиции»</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/fund-gi.html</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ключевой   информационный документ ОПИФ рыночных финансовых инструментов «Арикапитал - Глобальные инвестиции» на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/kid/fund-gi/67b86dba-62dc-4fd6-a978-add2c5d22662.html</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью Управляющая компания "Арикапитал"</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Арикапитал – Мировые рынки»</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/fund-mr.html</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ключевой   информационный документ ОПИФ рыночных финансовых инструментов «Арикапитал – Мировые рынки» на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/kid/fund-mr.html</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью Управляющая компания "Арикапитал"</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Арикапитал – Мировые рынки»</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/fund-mr.html</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ключевой   информационный документ ОПИФ рыночных финансовых инструментов «Арикапитал – Мировые рынки» на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/kid/fund-mr/25b15496-03de-4ab3-9784-7ceec041bd28.html</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью Управляющая компания "Арикапитал"</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Арикапитал - ИнвестХироуз»</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/fund-rs.html</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ключевой   информационный документ ОПИФ рыночных финансовых инструментов «Арикапитал - ИнвестХироуз» на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/kid/fund-rs.html</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью Управляющая компания "Арикапитал"</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Арикапитал - ИнвестХироуз»</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/fund-rs.html</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ключевой   информационный документ ОПИФ рыночных финансовых инструментов «Арикапитал - ИнвестХироуз» на 30.06.2023</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aricapital.ru/disclosure/kid/fund-rs/b7240aef-1767-46ec-baca-0be3569561e5.html</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>11.07.2023 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "КРАСНЫЙ МОСТ"</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «КМ Оверсиз»</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>https://redbridge-am.com/info/opif-km-oversiz/</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "КРАСНЫЙ МОСТ"</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов "КМ Меркури"</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>https://redbridge-am.com/info/opif-km-merkuri/</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "КРАСНЫЙ МОСТ"</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов "КМ Секьюритиз"</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>https://redbridge-am.com/info/opif-km-sekyuritiz/</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Управляющая компания "КРАСНЫЙ МОСТ"</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд недвижимости «Георгиевский»</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>https://redbridge-am.com/info/zpif-georgievskiy/</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Акционерное общество Управляющая компания "Брокеркредитсервис"</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Закрытый паевой инвестиционный фонд
+комбинированный «Пулытьинск»</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Менеджмент-консалтинг"</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Валютный сбалансированный»</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/ru/disclosure/funds/opif/balanced-global-investments/info/</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>КИД за июнь 2023</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/common/img/uploaded/mc/funds/balanced-june2023.pdf</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 17:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Менеджмент-консалтинг"</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Золото»</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/ru/disclosure/funds/opif/gold/info/</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>КИД за июнь 2023</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/common/img/uploaded/mc/funds/gold-june2023.pdf</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 17:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Менеджмент-консалтинг"</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Валютные акции»</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/ru/disclosure/funds/opif/cur-shares/info/</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>КИД за июнь 2023</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/common/img/uploaded/mc/funds/kid-curshares-june2023.pdf</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Менеджмент-консалтинг"</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Открытый паевой инвестиционный фонд рыночных финансовых инструментов «Валютные облигации»</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/ru/disclosure/funds/opif/eurobonds/info/</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>КИД за июнь 2023</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/common/img/uploaded/mc/funds/cb-june2023.pdf</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Менеджмент-консалтинг"</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Биржевой паевой инвестиционный фонд рыночных финансовых инструментов «Всепогодный»</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/ru/disclosure/funds/bpifs/all-weather/info/</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>КИД за июнь 2023</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/common/img/uploaded/mc/funds/all-weather-june2023.pdf</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 17:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Менеджмент-консалтинг"</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Биржевой паевой инвестиционный фонд рыночных финансовых инструментов «Акции США»</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/ru/disclosure/funds/bpifs/bpif-usa/info/</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>КИД за июнь 2023</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/common/img/uploaded/mc/funds/usa-june2023.pdf</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Менеджмент-консалтинг"</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Биржевой паевой инвестиционный фонд рыночных финансовых инструментов «Акции Азии»</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/ru/disclosure/funds/bpifs/bpif-usa/info/</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>КИД за июнь 2023</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/common/img/uploaded/mc/funds/usa-june2023.pdf</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Менеджмент-консалтинг"</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Биржевой паевой инвестиционный фонд рыночных финансовых инструментов «Акции Европы»</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/ru/disclosure/funds/bpifs/bpif-europe/info/</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>КИД за июнь 2023</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/common/img/uploaded/mc/funds/europe-june2023.pdf</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Общество с ограниченной ответственностью "Менеджмент-консалтинг"</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Биржевой паевой инвестиционный фонд рыночных финансовых инструментов «Облигации США»</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/ru/disclosure/funds/bpifs/bpif-bonds-usa/info/</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>КИД за июнь 2023</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>http://www.mconsulting.ru/common/img/uploaded/mc/funds/bonds-usa-june2023.pdf</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>07.07.2023 17:59</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
